--- a/data/trans_dic/P21_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes</t>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,35%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,94%</t>
+          <t>25,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22,75%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>22,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>22,84%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,77; 27,63</t>
+          <t>13,2; 26,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,39; 25,36</t>
+          <t>12,43; 37,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,42; 31,58</t>
+          <t>20,33; 32,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,59; 27,47</t>
+          <t>19,31; 31,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,86; 27,81</t>
+          <t>18,18; 27,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,07; 23,54</t>
+          <t>18,21; 30,75</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>10,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>25,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 28,78</t>
+          <t>14,2; 28,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,3; 18,37</t>
+          <t>6,17; 17,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,78; 31,37</t>
+          <t>17,74; 31,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,71; 28,59</t>
+          <t>18,95; 32,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,86; 28,7</t>
+          <t>18,0; 27,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 22,1</t>
+          <t>14,4; 23,39</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,73%</t>
+          <t>36,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,72%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,11%</t>
+          <t>23,3%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 33,32</t>
+          <t>4,59; 32,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 52,63</t>
+          <t>11,59; 72,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 33,49</t>
+          <t>8,78; 37,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 18,9</t>
+          <t>3,17; 27,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>14,56; 30,24</t>
+          <t>9,53; 30,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,35; 34,85</t>
+          <t>9,14; 50,39</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,58%</t>
+          <t>24,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>21,15%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,34; 26,01</t>
+          <t>14,99; 24,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 21,86</t>
+          <t>11,88; 27,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,24; 29,53</t>
+          <t>20,65; 28,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,25; 24,61</t>
+          <t>19,77; 28,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,35; 26,35</t>
+          <t>19,33; 25,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,31; 21,92</t>
+          <t>17,83; 25,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le ha resultado bastante o muy difícil la situación de confinamiento durante el último mes (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>69448</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>85608</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>112684</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>128850</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>182133</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>214458</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>48288; 95400</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>53465; 160127</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>88527; 141765</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>98268; 162557</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>145646; 218005</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>170993; 288686</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>62410</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38152</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>85217</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>107531</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>147628</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>145683</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>43263; 87627</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22171; 64331</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>62101; 111246</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>80591; 140166</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>117881; 181151</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>112974; 183537</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12676</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37425</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17235</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9854</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>29910</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>47279</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3892; 27953</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11795; 73532</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7254; 30813</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3212; 28043</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15949; 50415</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18546; 102260</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>144534</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>161185</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>215137</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>246235</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>359671</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>407420</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>113224; 185753</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>105904; 247392</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>179223; 251417</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>204709; 290530</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>313769; 417143</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>343498; 499495</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>